--- a/public/sample_uploads/portfolio_investments3.xlsx
+++ b/public/sample_uploads/portfolio_investments3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0909A417-A842-485D-9EA2-55781A87E618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCFBB9C-AA6E-4E61-BE0A-B7A91A201ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <t>Investment Date *</t>
   </si>
   <si>
-    <t>Amount *</t>
-  </si>
-  <si>
     <t>Quantity *</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>INR</t>
+  </si>
+  <si>
+    <t>Amount (Excluding Expenses)*</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:AME9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -970,57 +970,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -1032,30 +1032,30 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -1067,30 +1067,30 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -1102,30 +1102,30 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -1137,30 +1137,30 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>44927</v>
@@ -1172,30 +1172,30 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>44197</v>
@@ -1207,33 +1207,33 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -1245,30 +1245,30 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -1280,22 +1280,22 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments3.xlsx
+++ b/public/sample_uploads/portfolio_investments3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCFBB9C-AA6E-4E61-BE0A-B7A91A201ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F4991-D86A-44BE-8E32-08FDCF0EE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>Fund</t>
   </si>
@@ -505,12 +505,6 @@
   </si>
   <si>
     <t>MSFT</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>KLAC</t>
@@ -932,7 +926,7 @@
   <dimension ref="A1:AME9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -970,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -988,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -1041,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
@@ -1076,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
@@ -1111,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
@@ -1146,7 +1140,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
@@ -1181,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>21</v>
@@ -1198,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="D7" s="1">
         <v>1000000</v>
@@ -1210,16 +1204,13 @@
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>21</v>
@@ -1233,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -1254,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>21</v>
@@ -1268,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -1289,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>21</v>

--- a/public/sample_uploads/portfolio_investments3.xlsx
+++ b/public/sample_uploads/portfolio_investments3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F4991-D86A-44BE-8E32-08FDCF0EE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C2072-2B17-4DED-91CF-CEF62A97D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,32 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Pool / CoInvest</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -433,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>Fund</t>
   </si>
@@ -450,9 +425,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Folio No</t>
   </si>
   <si>
@@ -490,9 +462,6 @@
   </si>
   <si>
     <t>Bought during dip</t>
-  </si>
-  <si>
-    <t>Pool</t>
   </si>
   <si>
     <t>Stock</t>
@@ -923,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME9"/>
+  <dimension ref="A1:AMD9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -937,23 +906,22 @@
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.06640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.3984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.19921875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.9296875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="29.265625" style="1" customWidth="1"/>
-    <col min="19" max="1018" width="8.53125" style="1"/>
-    <col min="1019" max="1019" width="9.1328125" style="1" customWidth="1"/>
-    <col min="1020" max="1025" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.9296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="29.265625" style="1" customWidth="1"/>
+    <col min="18" max="1017" width="8.53125" style="1"/>
+    <col min="1018" max="1018" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1019" max="1024" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -964,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -979,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -1005,16 +973,13 @@
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -1026,30 +991,27 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -1061,30 +1023,27 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -1096,30 +1055,27 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -1131,30 +1087,27 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>44927</v>
@@ -1166,30 +1119,27 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>44228</v>
@@ -1201,30 +1151,27 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -1236,30 +1183,27 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -1271,31 +1215,24 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1009" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Pool,CoInvest"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/public/sample_uploads/portfolio_investments3.xlsx
+++ b/public/sample_uploads/portfolio_investments3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C2072-2B17-4DED-91CF-CEF62A97D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE91A25-DAFD-4562-A247-527285C15E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,32 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Applicable if for CoInvest</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Fund</t>
   </si>
@@ -423,9 +398,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Folio No</t>
   </si>
   <si>
     <t>Instrument</t>
@@ -892,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMD9"/>
+  <dimension ref="A1:AMC9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -905,23 +877,22 @@
     <col min="3" max="3" width="16.265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.3984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.19921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.9296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="29.265625" style="1" customWidth="1"/>
-    <col min="18" max="1017" width="8.53125" style="1"/>
-    <col min="1018" max="1018" width="9.1328125" style="1" customWidth="1"/>
-    <col min="1019" max="1024" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.9296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.265625" style="1" customWidth="1"/>
+    <col min="17" max="1016" width="8.53125" style="1"/>
+    <col min="1017" max="1017" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1018" max="1023" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -932,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -944,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -970,16 +941,13 @@
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -991,27 +959,27 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -1023,27 +991,27 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -1055,27 +1023,27 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -1087,27 +1055,27 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>44927</v>
@@ -1119,27 +1087,27 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>44228</v>
@@ -1151,27 +1119,27 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -1183,27 +1151,27 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -1215,24 +1183,24 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/public/sample_uploads/portfolio_investments3.xlsx
+++ b/public/sample_uploads/portfolio_investments3.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t xml:space="preserve">Fund</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t xml:space="preserve">Excused Folio Ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proforma</t>
   </si>
   <si>
     <t xml:space="preserve">SAAS Fund</t>
@@ -451,7 +454,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -505,6 +508,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -583,24 +593,32 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -795,10 +813,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -820,70 +838,73 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="29.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="17" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="1017" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1018" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1018" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>43831</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -893,29 +914,29 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>44197</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -925,29 +946,29 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>44562</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -957,29 +978,29 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>43831</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -989,29 +1010,29 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>44927</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -1021,29 +1042,29 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>44228</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -1053,29 +1074,29 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>43831</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -1085,29 +1106,29 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>43831</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -1117,19 +1138,19 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments3.xlsx
+++ b/public/sample_uploads/portfolio_investments3.xlsx
@@ -389,28 +389,28 @@
     <t xml:space="preserve">Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Sector *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type Of Investee Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type Of Security</t>
+    <t xml:space="preserve">Sebi Sector *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebi Type Of Investee Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebi Type Of Security</t>
   </si>
   <si>
     <t xml:space="preserve">Investment Domicile *</t>
   </si>
   <si>
-    <t xml:space="preserve">Isin</t>
+    <t xml:space="preserve">Sebi Isin</t>
   </si>
   <si>
     <t xml:space="preserve">Sebi Registration Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Is Associate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Managed or Sponsored By Aif</t>
+    <t xml:space="preserve">Sebi Is Associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebi Is Managed or Sponsored By Aif</t>
   </si>
   <si>
     <t xml:space="preserve">Excused Folio Ids</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">INR</t>
   </si>
   <si>
-    <t xml:space="preserve">Tech</t>
+    <t xml:space="preserve">Chemicals</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic</t>
@@ -454,7 +454,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -509,12 +509,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -593,7 +587,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,10 +605,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,7 +806,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,9 +815,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.39"/>
@@ -893,7 +883,7 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -904,7 +894,7 @@
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -936,7 +926,7 @@
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -968,7 +958,7 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5" t="n">
         <v>44562</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -1000,7 +990,7 @@
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -1032,7 +1022,7 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="5" t="n">
         <v>44927</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -1064,7 +1054,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="5" t="n">
         <v>44228</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -1096,7 +1086,7 @@
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -1128,7 +1118,7 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D9" s="1" t="n">
